--- a/提案書/ECシステム構築プロジェクト_課題管理表_20250703.xlsx
+++ b/提案書/ECシステム構築プロジェクト_課題管理表_20250703.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pm-cause-ec\提案書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishizumi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0303BE7C-B70C-47BE-8CD1-EF8CDE48A36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7948CC-74FA-4A1D-8113-2A2A889FEB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB9B3CFB-A2B2-410A-A085-F7356637B2F4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1605,6 +1605,727 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題ございません。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の通りです。
+・顧客が問い合わせフォームへ内容を入力し送信→担当者がメールで回答
+・問い合わせ窓口の電話番号で直接通話</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上情報の分析は、販売管理システム側でやっていますので、今回のECサイト開発ではスコープ外としていただいて結構です。</t>
+    <rPh sb="0" eb="4">
+      <t>ウリアゲジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ハンバイカンリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を購入する際、ギフトとして利用ユーザーではない別の方の住所へ商品を配送する等の対応を行うケースはございますか？
+⇒あります。要件に入れていただけますと幸いです。
+また、ギフトラッピング対応の有無も教えてください。
+⇒こちらも要件に入れていただけますと幸いです。</t>
+    <rPh sb="64" eb="66">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>サイワ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>サイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲストの状態で、商品の購入が可能としていただけますでしょうか。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男女比は1：9で圧倒的に女性ユーザが多いです。
+20～40代の女性がメインに利用者です。20代以下：30代：40代以上でざっくり2:5:3といった構成比です。
+今後、20代以下の構成比をもう少し上げていきたいという方針はございます。</t>
+    <rPh sb="0" eb="3">
+      <t>ダンジョヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アットウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ダイイジョウ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>コウセイヒ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>コウセイヒ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前提として13枚目14枚目はあくまで例なので、こだわらなくて結構です。既存ECサイトの網羅性も怪しいです。既存ECサイトの機能を実現することをまずはご検討ください。
+そのうえで、
+13枚目については、基本的には、マスト要件としていただけますでしょうか。ログイン連携や、決済方法のどれかが対応できないといったご相談はお受けします。
+14枚目については、○○広告とあるものは、マスト要件ではありません。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>モウラセイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アヤ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="134" eb="138">
+      <t>ケッサイホウホウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>マイメ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者アカウントの管理方法についてご確認させてください。
+例えばカスタマーサービス部のメンバーが管理者機能を使用する際、
+カスタマーサービス部のメンバーひとりずつにアカウントやロールが付与されていますか？
+それとも、カスタマーサービス部用のアカウントを一つ用意して部署内で共有する方式でしょうか？</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECサイトで取り扱う商品は全部で何種類ほどございますか？</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ナンシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文履歴などのログデータは何年間保持することを想定していますか？</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ナンネンカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を一覧表示する際のソートや絞り込み方法について、どのようなパターンを想定されているか教えてください。
+ソート例
+・値段の高い順/安い順
+・ユーザー評価の高い順(商品へのレビュー機能があると想定)
+・新着順
+絞り込み例
+・セール対象商品のみ
+・在庫ありのみ
+・特定の金額以下のみ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サイトマップを作成しており、管理者用の機能への遷移方法についてご確認させてください。
+ECサイトの管理画面へアクセスするには、専用のログイン画面があり、管理者権限を持ったアカウント情報でログインすることで管理画面を表示することができるという認識で合ってますでしょうか？
+</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">現行ECシステムから新ECシステムにデータを移行する際の要件について確認させてください。
+・移行する情報の内訳について、以下の情報を想定していますが、追加/修正すべきものがあれば教えてください
+　顧客関連
+顧客マスタデータ(氏名、住所、電話番号、メールアドレス、性別、生年月日、ハッシュ化したパスワード)
+保有ポイント、保有クーポン情報、メールマガジン購読状況
+　注文・販売履歴関連
+注文番号、注文日時、購入者情報、合計金額、送料、手数料、利用ポイント、利用クーポン、決済方法、決済ステータス、配送先情報、配送ステータス、返品履歴(返品商品、理由、処理状況)
+・注文販売履歴を移行する場合、何年分のデータを移行しますか？
+・商品マスタ情報は移行不要の認識で相違ないでしょうか？移行したい情報がございましたら教えてください
+・移行対象の情報をCSVなどへ出力する機能は現行ECシステムにございますか？
+</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ウチワケ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="118" eb="122">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ホユウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ホユウ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>コウドク</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="217" eb="220">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ハイソウ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>ハイソウ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>ヘンピン</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>ヘンピン</t>
+    </rPh>
+    <rPh sb="269" eb="271">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="272" eb="274">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="277" eb="279">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="290" eb="292">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="294" eb="296">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="297" eb="300">
+      <t>ナンネンブン</t>
+    </rPh>
+    <rPh sb="305" eb="307">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="317" eb="319">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="329" eb="331">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="333" eb="335">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="340" eb="342">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="345" eb="347">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="355" eb="356">
+      <t>オシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2084,8 +2805,8 @@
   <dimension ref="B2:I57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2612,9 +3333,11 @@
         <v>45846</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="75" x14ac:dyDescent="0.4">
       <c r="B22" s="2">
@@ -2636,9 +3359,11 @@
         <v>45846</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="168.75" x14ac:dyDescent="0.4">
       <c r="B23" s="2">
@@ -2660,9 +3385,11 @@
         <v>45846</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="75" x14ac:dyDescent="0.4">
       <c r="B24" s="2">
@@ -2684,9 +3411,11 @@
         <v>45846</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B25" s="2">
@@ -2708,9 +3437,11 @@
         <v>45846</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B26" s="2">
@@ -2732,11 +3463,13 @@
         <v>45846</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -2756,11 +3489,13 @@
         <v>45846</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -2780,80 +3515,154 @@
         <v>45846</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="C29" s="3">
+        <v>45841</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45846</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="C30" s="3">
+        <v>45841</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45846</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="C31" s="3">
+        <v>45841</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45846</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B32" s="2">
         <v>30</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="C32" s="3">
+        <v>45841</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45846</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" ht="187.5" x14ac:dyDescent="0.4">
       <c r="B33" s="2">
         <v>31</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="C33" s="3">
+        <v>45841</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45846</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" ht="393.75" x14ac:dyDescent="0.4">
       <c r="B34" s="2">
         <v>32</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="C34" s="3">
+        <v>45841</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45846</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
